--- a/rmj_blank_invoice_excel.xlsx
+++ b/rmj_blank_invoice_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonto\OneDrive\Desktop\sampleyanagisawa\samplesmtp\serverSideProxy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCD0230-D883-4BA1-913D-34DC02A2AE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F7AD87-009E-449C-9A03-DA163FBD2E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="405" windowWidth="15405" windowHeight="13305" xr2:uid="{9FDE7FE3-121B-4441-847D-630F036FF6AF}"/>
+    <workbookView xWindow="13200" yWindow="750" windowWidth="15405" windowHeight="13305" xr2:uid="{9FDE7FE3-121B-4441-847D-630F036FF6AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="_-\$* #,##0_ ;_-\$* \-#,##0\ ;_-\$* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="0;&quot;▲ &quot;0"/>
+    <numFmt numFmtId="178" formatCode="0;&quot;▲ &quot;0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -604,7 +604,7 @@
     <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="8" borderId="3" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="3" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -706,8 +706,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="97048917" y="305362"/>
-          <a:ext cx="6804005" cy="9445304"/>
+          <a:off x="94716483" y="305362"/>
+          <a:ext cx="6814720" cy="9445304"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1191,7 +1191,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57123</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="" textlink="$B$7">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
@@ -1233,13 +1233,21 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:fld id="{DBF95EFB-876E-45E3-A0A1-5E793DD46F3A}" type="TxLink">
+            <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> asdasdsadas</a:t>
-          </a:r>
+            <a:t> </a:t>
+          </a:fld>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1300,16 +1308,15 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:fld id="{4865DB52-224F-4237-A207-7EB627EAD1FD}" type="TxLink">
+          <a:fld id="{B18CB308-0B5F-4EAE-BFEC-9E175EA3FF10}" type="TxLink">
             <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="游ゴシック"/>
               <a:ea typeface="游ゴシック"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:pPr/>
             <a:t> </a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
@@ -4433,8 +4440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86315F5-FA26-4808-B216-AC375E3CC4AF}">
   <dimension ref="A1:ET26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="EC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EO9" sqref="EN9:EO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
